--- a/results/mp/logistic/corona/confidence/210/topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,31 +52,31 @@
     <t>died</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>drop</t>
@@ -85,9 +85,6 @@
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
     <t>stop</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
@@ -106,78 +106,96 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
+    <t>friend</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
@@ -187,34 +205,43 @@
     <t>help</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>giving</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>.</t>
@@ -575,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7397260273972602</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -686,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,13 +745,13 @@
         <v>31</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7241379310344828</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5789473684210527</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K7">
-        <v>0.839622641509434</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5588235294117647</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K8">
-        <v>0.8381201044386423</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>321</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>321</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.417989417989418</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K11">
-        <v>0.78125</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L11">
-        <v>125</v>
+        <v>314</v>
       </c>
       <c r="M11">
-        <v>125</v>
+        <v>314</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4166666666666667</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.796875</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3783783783783784</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3624031007751938</v>
+        <v>0.3352713178294573</v>
       </c>
       <c r="C14">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D14">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K14">
-        <v>0.7578125</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3529411764705883</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K15">
-        <v>0.7535211267605634</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.288135593220339</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1312,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>0.7446808510638298</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1344,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1362,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>0.7307692307692307</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1386,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1394,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2363636363636364</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1412,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K18">
-        <v>0.7291666666666666</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1436,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,13 +1471,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1879194630872483</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1462,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>121</v>
+        <v>320</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1486,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1494,13 +1521,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.09722222222222222</v>
+        <v>0.06746031746031746</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1512,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>0.7037037037037037</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1536,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1544,37 +1571,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.05555555555555555</v>
+        <v>0.006069094304388422</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>14</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>238</v>
+        <v>2129</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K21">
-        <v>0.6825396825396826</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1586,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1594,37 +1621,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005884825556956704</v>
+        <v>0.005889777029869584</v>
       </c>
       <c r="C22">
         <v>14</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K22">
-        <v>0.6744186046511628</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1636,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1644,37 +1671,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.002716336825766395</v>
+        <v>0.003108003108003108</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E23">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="F23">
-        <v>0.5600000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>5140</v>
+        <v>5132</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K23">
-        <v>0.66</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1686,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1694,13 +1721,13 @@
         <v>51</v>
       </c>
       <c r="K24">
-        <v>0.6352941176470588</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L24">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1712,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1720,7 +1747,7 @@
         <v>52</v>
       </c>
       <c r="K25">
-        <v>0.6060606060606061</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
         <v>20</v>
@@ -1738,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1746,13 +1773,13 @@
         <v>53</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1772,13 +1799,13 @@
         <v>54</v>
       </c>
       <c r="K27">
-        <v>0.5899581589958159</v>
+        <v>0.7</v>
       </c>
       <c r="L27">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1790,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1798,13 +1825,13 @@
         <v>55</v>
       </c>
       <c r="K28">
-        <v>0.5638297872340425</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L28">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M28">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1816,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1824,13 +1851,13 @@
         <v>56</v>
       </c>
       <c r="K29">
-        <v>0.5389830508474577</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L29">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1842,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>136</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1850,13 +1877,13 @@
         <v>57</v>
       </c>
       <c r="K30">
-        <v>0.5384615384615384</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1868,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1876,13 +1903,13 @@
         <v>58</v>
       </c>
       <c r="K31">
-        <v>0.5285714285714286</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1894,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>33</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1902,13 +1929,13 @@
         <v>59</v>
       </c>
       <c r="K32">
-        <v>0.525</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1920,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1928,13 +1955,13 @@
         <v>60</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1946,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1954,13 +1981,13 @@
         <v>61</v>
       </c>
       <c r="K34">
-        <v>0.4642857142857143</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1972,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1980,13 +2007,13 @@
         <v>62</v>
       </c>
       <c r="K35">
-        <v>0.4157303370786517</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L35">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="M35">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1998,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>52</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2006,7 +2033,7 @@
         <v>63</v>
       </c>
       <c r="K36">
-        <v>0.282051282051282</v>
+        <v>0.55</v>
       </c>
       <c r="L36">
         <v>22</v>
@@ -2024,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2032,13 +2059,13 @@
         <v>64</v>
       </c>
       <c r="K37">
-        <v>0.273972602739726</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2050,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2058,13 +2085,13 @@
         <v>65</v>
       </c>
       <c r="K38">
-        <v>0.2549019607843137</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2076,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2084,13 +2111,13 @@
         <v>66</v>
       </c>
       <c r="K39">
-        <v>0.01166666666666667</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2102,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>1186</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2110,25 +2137,285 @@
         <v>67</v>
       </c>
       <c r="K40">
-        <v>0.004010427110487266</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L40">
+        <v>13</v>
+      </c>
+      <c r="M40">
+        <v>13</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L41">
+        <v>18</v>
+      </c>
+      <c r="M41">
+        <v>18</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K42">
+        <v>0.4269662921348314</v>
+      </c>
+      <c r="L42">
+        <v>38</v>
+      </c>
+      <c r="M42">
+        <v>38</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="L43">
+        <v>19</v>
+      </c>
+      <c r="M43">
+        <v>19</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L44">
+        <v>27</v>
+      </c>
+      <c r="M44">
+        <v>27</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K45">
+        <v>0.2542372881355932</v>
+      </c>
+      <c r="L45">
+        <v>15</v>
+      </c>
+      <c r="M45">
+        <v>15</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46">
+        <v>0.2465753424657534</v>
+      </c>
+      <c r="L46">
+        <v>18</v>
+      </c>
+      <c r="M46">
+        <v>18</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K47">
+        <v>0.01668056713928273</v>
+      </c>
+      <c r="L47">
         <v>20</v>
       </c>
-      <c r="M40">
-        <v>29</v>
-      </c>
-      <c r="N40">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="O40">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>4967</v>
+      <c r="M47">
+        <v>21</v>
+      </c>
+      <c r="N47">
+        <v>0.95</v>
+      </c>
+      <c r="O47">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K48">
+        <v>0.005617977528089887</v>
+      </c>
+      <c r="L48">
+        <v>15</v>
+      </c>
+      <c r="M48">
+        <v>18</v>
+      </c>
+      <c r="N48">
+        <v>0.83</v>
+      </c>
+      <c r="O48">
+        <v>0.17</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K49">
+        <v>0.00340954673084637</v>
+      </c>
+      <c r="L49">
+        <v>17</v>
+      </c>
+      <c r="M49">
+        <v>27</v>
+      </c>
+      <c r="N49">
+        <v>0.63</v>
+      </c>
+      <c r="O49">
+        <v>0.37</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>4969</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50">
+        <v>0.003301611963488056</v>
+      </c>
+      <c r="L50">
+        <v>17</v>
+      </c>
+      <c r="M50">
+        <v>33</v>
+      </c>
+      <c r="N50">
+        <v>0.52</v>
+      </c>
+      <c r="O50">
+        <v>0.48</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>5132</v>
       </c>
     </row>
   </sheetData>
